--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/CU$CUAP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/CU$CUAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4DA389-B2BF-4E5D-B7E0-5FA52827F72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85970A25-8687-4118-82E1-370920AEBD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>CU$CUAP</t>
   </si>
@@ -77,9 +77,6 @@
     <t>客戶資料主檔</t>
   </si>
   <si>
-    <t>EName</t>
-  </si>
-  <si>
     <t>英文姓名</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">教育程度代號  </t>
-  </si>
-  <si>
-    <t>EduCode</t>
   </si>
   <si>
     <t>教育程度代號</t>
@@ -266,6 +260,22 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不同的欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EduCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為文字格式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -659,15 +669,16 @@
     <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="1.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="38.5" style="2"/>
+    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="45" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="38.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,13 +686,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -698,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -718,10 +732,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -737,28 +751,28 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -769,28 +783,28 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -801,28 +815,28 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -833,28 +847,28 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -865,28 +879,31 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -897,28 +914,28 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -929,28 +946,28 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -961,31 +978,34 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
+      <c r="G11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
@@ -993,28 +1013,28 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -1025,28 +1045,31 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1057,28 +1080,28 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1089,28 +1112,28 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -1121,28 +1144,28 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1153,31 +1176,31 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3">
         <v>7</v>
@@ -1186,12 +1209,13 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/CU$CUAP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/CU$CUAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85970A25-8687-4118-82E1-370920AEBD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A0C0F3-7D18-4B79-85FA-241F1D6F09FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="804" yWindow="2064" windowWidth="18900" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
